--- a/Masterarbeit_daten/6.6.4/Arduino-data.xlsx
+++ b/Masterarbeit_daten/6.6.4/Arduino-data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="638">
   <si>
     <t>Größensicht</t>
   </si>
@@ -1722,9 +1722,6 @@
     <t>DO220AAL</t>
   </si>
   <si>
-    <t>SMD_1575SW</t>
-  </si>
-  <si>
     <t>L1812</t>
   </si>
   <si>
@@ -1770,9 +1767,6 @@
     <t>4 x Widerstand Dickfilm Flat Chip 1206 (8.9mg)</t>
   </si>
   <si>
-    <t>SOT-23</t>
-  </si>
-  <si>
     <t>LQFP144</t>
   </si>
   <si>
@@ -1791,48 +1785,6 @@
     <t>CT/CN0603</t>
   </si>
   <si>
-    <t>PINHD-2x3</t>
-  </si>
-  <si>
-    <t>1.5 x Widerstand Dickfilm Flat Chip 0402 (0.75mg)</t>
-  </si>
-  <si>
-    <t>PINHD-1x8</t>
-  </si>
-  <si>
-    <t>2 x Widerstand Dickfilm Flat Chip 0402 (0.75mg)</t>
-  </si>
-  <si>
-    <t>PINHD-1x10</t>
-  </si>
-  <si>
-    <t>2.5 x Widerstand Dickfilm Flat Chip 0402 (0.75mg)</t>
-  </si>
-  <si>
-    <t>PINHEAD_2X05_127</t>
-  </si>
-  <si>
-    <t>PINHD-2X18</t>
-  </si>
-  <si>
-    <t>9 x Widerstand Dickfilm Flat Chip 0402 (0.75mg)</t>
-  </si>
-  <si>
-    <t>PINHEAD_2X07_127</t>
-  </si>
-  <si>
-    <t>3.5 x Widerstand Dickfilm Flat Chip 0402 (0.75mg)</t>
-  </si>
-  <si>
-    <t>(Spule 0805)</t>
-  </si>
-  <si>
-    <t>J0402</t>
-  </si>
-  <si>
-    <t>MCR-AB1-S-RA-SMT</t>
-  </si>
-  <si>
     <t>POWERSUPPLY_DC-21MM</t>
   </si>
   <si>
@@ -1840,6 +1792,153 @@
   </si>
   <si>
     <t>4 x Widerstand Dickfilm Flat Chip 0402 (0.75mg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diode power </t>
+  </si>
+  <si>
+    <t>Diode MELF</t>
+  </si>
+  <si>
+    <t>http://de.farnell.com/atmel/atmega16u2-mur/ic-8bit-mcu-avr-mega-16mhz-nw/dp/2364798RL</t>
+  </si>
+  <si>
+    <t>ATMEGA16U2-MU</t>
+  </si>
+  <si>
+    <t>http://de.farnell.com/atmel/atsam3x8ea-au/mcu-32bit-cortex-m3-84mhz-lqfp/dp/2318839?ost=ATSAM3X8EA-AU</t>
+  </si>
+  <si>
+    <t>ATSAM3X8EA-AU</t>
+  </si>
+  <si>
+    <t>http://de.farnell.com/texas-instruments/sn74lvc1g125dckr/buffer-gate-single-smd-sc70-5/dp/1470771</t>
+  </si>
+  <si>
+    <t>74LVC1G125DCK</t>
+  </si>
+  <si>
+    <t>http://de.farnell.com/panasonic-electronic-components/eeefp1e680ap/alu-elko-68uf-25v-smd/dp/1539487</t>
+  </si>
+  <si>
+    <t>PANASONIC  EEEFP1E680AP  ALU-ELKO</t>
+  </si>
+  <si>
+    <t>http://de.farnell.com/yageo-phycomp/cc0603jrnpoabn101/kond-mlcc-c0g-np0-100pf-200v-0603/dp/1284111</t>
+  </si>
+  <si>
+    <t>http://de.farnell.com/tdk/c0402x5r0j103k020bc/ceramic-capacitor-0-01uf-6-3v/dp/2354042</t>
+  </si>
+  <si>
+    <t>http://de.farnell.com/diodes-inc/b220-13-f/schottky-diode-20v-2a-smb/dp/1843749</t>
+  </si>
+  <si>
+    <t>http://de.farnell.com/c-k-components/ksem31j-lfs/taster-spst-0-05a-32vdc-smd/dp/2435311</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>Transistor SOT23</t>
+  </si>
+  <si>
+    <t>Kondensator MLCC 0603</t>
+  </si>
+  <si>
+    <t>Kondensator MLCC 01005</t>
+  </si>
+  <si>
+    <t>http://de.farnell.com/multicomp/mcft000197/spule-ferrit-1812-1uh/dp/1711925</t>
+  </si>
+  <si>
+    <t>Spule 1812</t>
+  </si>
+  <si>
+    <t>http://de.farnell.com/texas-instruments/lmv358mmx-nopb/ic-op-amp-1mhz-1v-us-soic-8/dp/1496055?ost=LMV358MMX</t>
+  </si>
+  <si>
+    <t>LMV358MMX</t>
+  </si>
+  <si>
+    <t>http://de.farnell.com/texas-instruments/lm2736ymk/reg-buck-750ma-smd-sot23-6-2736/dp/1312554</t>
+  </si>
+  <si>
+    <t>LM2736Y</t>
+  </si>
+  <si>
+    <t>http://de.farnell.com/stmicroelectronics/ld1117s33tr/v-reg-ldo-3-3v-smd-1117-sot-223/dp/1202826</t>
+  </si>
+  <si>
+    <t>MC33269ST-3.3T3</t>
+  </si>
+  <si>
+    <t>http://de.farnell.com/te-connectivity-amp/8-1879061-0/widerstand-0402-20k-0-1/dp/1863394</t>
+  </si>
+  <si>
+    <t>Widerstand 0402</t>
+  </si>
+  <si>
+    <t>http://de.farnell.com/kingbright/kpt-2012sgc/led-0805-gr-n-12mcd-568nm/dp/2099239</t>
+  </si>
+  <si>
+    <t>LED 0805</t>
+  </si>
+  <si>
+    <t>http://de.farnell.com/bourns/srr0604-100ml/leistungsinduktivit-t-10uh-20/dp/1929700</t>
+  </si>
+  <si>
+    <t>Spule SRR 0604</t>
+  </si>
+  <si>
+    <t>http://de.farnell.com/nxp/bc847b-215/transistor-npn-45v-sot-23/dp/1081232</t>
+  </si>
+  <si>
+    <t>BC847B</t>
+  </si>
+  <si>
+    <t>Widerstand 0603</t>
+  </si>
+  <si>
+    <t>http://de.farnell.com/multicomp/mc0063w0603121k/widerstand-0603-21k/dp/1170918</t>
+  </si>
+  <si>
+    <t>http://de.farnell.com/bourns/cd1206-s01575/schaltdiode-100v-150ma-1206/dp/2211947</t>
+  </si>
+  <si>
+    <t>CD1206-S01575</t>
+  </si>
+  <si>
+    <t>http://de.farnell.com/vishay/mss1p3l-m3-89a/schottky-diode-1a-30v-microsmp/dp/1815644</t>
+  </si>
+  <si>
+    <t>http://de.farnell.com/fox-electronics/foxslf-120-20/quarz-12-0-mhz-20pf/dp/2063948</t>
+  </si>
+  <si>
+    <t>http://de.farnell.com/txc/7xz-32-768kbe-t/osc-32-768khz-3-2-x-2-5mm-cmos/dp/1892184</t>
+  </si>
+  <si>
+    <t>http://de.farnell.com/lumberg/neb-21-r/einbaubuchse-leiterplatte-stift/dp/1217037</t>
+  </si>
+  <si>
+    <t>Einbaubuchse Netzteil</t>
+  </si>
+  <si>
+    <t>http://de.farnell.com/hirose-hrs/zx62d-b-5p8/steckverb-micro-usb-buchse-5pol/dp/2300437</t>
+  </si>
+  <si>
+    <t>Micro USB Buchse</t>
+  </si>
+  <si>
+    <t>http://de.farnell.com/panasonic-electronic-components/exb38v103jv/widerstandsarray-konvex-0603x4/dp/2060107</t>
+  </si>
+  <si>
+    <t>Widerstandsnetzwerk</t>
+  </si>
+  <si>
+    <t>http://de.farnell.com/multicomp/mcvz0603m180agt/varistor-0603-14-vac/dp/1856931</t>
+  </si>
+  <si>
+    <t>Varistor 0603</t>
   </si>
 </sst>
 </file>
@@ -1854,7 +1953,7 @@
     <numFmt numFmtId="168" formatCode="0.00000E+00"/>
     <numFmt numFmtId="169" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1885,13 +1984,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1914,7 +2006,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1943,9 +2035,6 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2001,7 +2090,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2015,7 +2103,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2037,7 +2124,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2066,7 +2152,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2095,7 +2180,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2186,7 +2270,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2246,7 +2329,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2260,7 +2342,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2289,7 +2370,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2318,7 +2398,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2347,7 +2426,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2376,7 +2454,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2405,7 +2482,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2434,7 +2510,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2463,7 +2538,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2492,7 +2566,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2521,7 +2594,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2550,7 +2622,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2579,7 +2650,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2608,7 +2678,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2637,7 +2706,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2666,7 +2734,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="15"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2688,7 +2755,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="16"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2717,7 +2783,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="17"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2746,7 +2811,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="18"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2775,7 +2839,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="19"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2804,7 +2867,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="20"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2833,7 +2895,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="21"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2862,7 +2923,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="22"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2891,7 +2951,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="25"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2920,7 +2979,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="26"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2949,7 +3007,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="27"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2978,7 +3035,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="28"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3007,7 +3063,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="29"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3036,7 +3091,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="31"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3065,7 +3119,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="32"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3094,7 +3147,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="33"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3123,7 +3175,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="35"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3152,7 +3203,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="36"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3181,7 +3231,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="37"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3210,7 +3259,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="38"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3239,7 +3287,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="39"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3615,7 +3662,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3629,7 +3675,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3658,7 +3703,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3687,7 +3731,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3709,7 +3752,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3738,7 +3780,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3767,7 +3808,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3796,7 +3836,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3825,7 +3864,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3854,7 +3892,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3883,7 +3920,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3912,7 +3948,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3941,7 +3976,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3970,7 +4004,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3999,7 +4032,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4028,7 +4060,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4185,7 +4216,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4245,7 +4275,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4259,7 +4288,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4281,7 +4309,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4303,7 +4330,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4325,7 +4351,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4409,7 +4434,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4459,39 +4483,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Arduino Due part</a:t>
+              <a:t>Arduino Due part prices</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> prices</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.38780752208483743"/>
-          <c:y val="2.8770090366081844E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.31647414559853926"/>
-          <c:y val="0.13617443453975975"/>
-          <c:w val="0.37129126404990515"/>
-          <c:h val="0.6108552418076183"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
@@ -4508,8 +4510,15 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>0.200 $</a:t>
+                      <a:t>0.110</a:t>
                     </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t> $</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4530,8 +4539,15 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>7.000 $</a:t>
+                      <a:t>0.114</a:t>
                     </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t> $</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4552,8 +4568,15 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>3.400 $</a:t>
+                      <a:t>0.430</a:t>
                     </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t> $</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4574,8 +4597,15 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>0.430 $</a:t>
+                      <a:t>0.891</a:t>
                     </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t> $</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4596,8 +4626,15 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>0.250 $</a:t>
+                      <a:t>0.111</a:t>
                     </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t> $</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4618,8 +4655,15 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>0.250 $</a:t>
+                      <a:t>4.670</a:t>
                     </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t> $</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4640,8 +4684,15 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>1.200 $</a:t>
+                      <a:t>0.357</a:t>
                     </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t> $</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4662,8 +4713,15 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>0.300 $</a:t>
+                      <a:t>0.139</a:t>
                     </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t> $</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4684,8 +4742,15 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>0.300 $</a:t>
+                      <a:t>0.125</a:t>
                     </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t> $</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4706,7 +4771,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>1.200 $</a:t>
+                      <a:t>6.330 $</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -4728,8 +4793,15 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>0.400 $</a:t>
+                      <a:t>0.196</a:t>
                     </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t> $</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4750,30 +4822,15 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>0.300 $</a:t>
+                      <a:t>2.280</a:t>
                     </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>0.730 $</a:t>
+                      <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t> $</a:t>
                     </a:r>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4794,95 +4851,89 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(Partprice!$A$1,Partprice!$A$3,Partprice!$A$4,Partprice!$A$5,Partprice!$A$6,Partprice!$A$10,Partprice!$A$12,Partprice!$A$13,Partprice!$A$16,Partprice!$A$22,Partprice!$A$25,Partprice!$A$26,Partprice!$A$32)</c:f>
+              <c:f>(Partprice!$C$40,Partprice!$C$43,Partprice!$C$44,Partprice!$C$45,Partprice!$C$46,Partprice!$C$47,Partprice!$C$51,Partprice!$C$52,Partprice!$C$55,Partprice!$C$57,Partprice!$C$58,Partprice!$C$59)</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Diode MELF (130mg) D2.6x5.2 PE</c:v>
+                  <c:v>Transistor SOT23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>IC TQFP 100 (520mg) 14x14x1.0 PE</c:v>
+                  <c:v>Spule 1812</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>IC TQFP 32 (70mg) 5x5x1.0 PE</c:v>
+                  <c:v>LMV358MMX</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>IC TSSOP 8 (28mg) 3.0x2.9x1.2 flash PE</c:v>
+                  <c:v>LM2736Y</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Kondensator Al-Elko SMD (300mg) D6.3x5.4 PE</c:v>
+                  <c:v>MC33269ST-3.3T3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>LED SMD low-efficiency max 50mA (35mg) without Au 3.2x2.8x1.9 PE</c:v>
+                  <c:v>ATMEGA16U2-MU</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Quartz Crystal (500mg) 11.05x4.65x2.5 PE</c:v>
+                  <c:v>Spule SRR 0604</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Schalter Tact (242mg) 6.2x6.3x1.8 PE</c:v>
+                  <c:v>PANASONIC  EEEFP1E680AP  ALU-ELKO</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Transistor signal SOT223 3 leads (110mg) 3.8x7.65x2.3 PE</c:v>
+                  <c:v>Button</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Quartz Crystal (500mg) 11.05x4.65x2.5 PE</c:v>
+                  <c:v>ATSAM3X8EA-AU</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Spule Multilayer Chip 1812 (108mg) 4.5x3.2x1.5 PE</c:v>
+                  <c:v>CRYSTAL-3.2-2.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Transistor signal SOT223 3 leads (110mg) 3.8x7.65x2.3 PE</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Rest</c:v>
+                  <c:v>RESONATOR_EPSON_FC_145</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Partprice!$C$1,Partprice!$C$3,Partprice!$C$4,Partprice!$C$5,Partprice!$C$6,Partprice!$C$10,Partprice!$C$12,Partprice!$C$13,Partprice!$C$16,Partprice!$C$22,Partprice!$C$25,Partprice!$C$26,Partprice!$C$32)</c:f>
+              <c:f>(Partprice!$E$40,Partprice!$E$43,Partprice!$E$44,Partprice!$E$45,Partprice!$E$46,Partprice!$E$47,Partprice!$E$51,Partprice!$E$52,Partprice!$E$55,Partprice!$E$57,Partprice!$E$58,Partprice!$E$59)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>0.114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.43</c:v>
+                  <c:v>0.89100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25</c:v>
+                  <c:v>0.111</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25</c:v>
+                  <c:v>4.67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2</c:v>
+                  <c:v>0.35699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3</c:v>
+                  <c:v>0.13900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2</c:v>
+                  <c:v>6.33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4</c:v>
+                  <c:v>0.19600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.70000000000000007</c:v>
+                  <c:v>2.2799999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4902,23 +4953,14 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.3238072073733168E-2"/>
-          <c:y val="0.76976692025287885"/>
-          <c:w val="0.93579529065899059"/>
-          <c:h val="0.19963826989980216"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:pPr rtl="0">
-            <a:defRPr sz="1100"/>
+            <a:defRPr sz="1200"/>
           </a:pPr>
           <a:endParaRPr lang="de-DE"/>
         </a:p>
@@ -5075,20 +5117,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>940493</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>192102</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>585109</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>36739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>511468</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>144956</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>549089</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5361,7 +5403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -43968,724 +44010,863 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="79.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="2" max="3" width="51.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="102.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>505</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="E1" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>506</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="E2" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>507</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>582</v>
-      </c>
-      <c r="C3" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>593</v>
+      </c>
+      <c r="E3" s="4">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>508</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>570</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>509</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>571</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>596</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>595</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>510</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>575</v>
-      </c>
-      <c r="C6" s="4">
+        <v>574</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>598</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="E6" s="4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>511</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>560</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>512</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>559</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>514</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>573</v>
-      </c>
-      <c r="C10" s="4">
+        <v>572</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>515</v>
       </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>516</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>585</v>
-      </c>
-      <c r="C12" s="4">
+        <v>583</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="4">
         <v>1.2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>517</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>578</v>
-      </c>
-      <c r="C13" s="4">
+        <v>577</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>518</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>574</v>
-      </c>
-      <c r="C14" s="4">
+        <v>573</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>519</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>566</v>
-      </c>
-      <c r="C15" s="4">
+        <v>565</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>520</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>569</v>
-      </c>
-      <c r="C16" s="4">
+        <v>568</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>521</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>568</v>
-      </c>
-      <c r="C17" s="4">
+        <v>567</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>522</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>572</v>
-      </c>
-      <c r="C18" s="4">
+        <v>571</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>523</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>577</v>
-      </c>
-      <c r="C19" s="4">
+        <v>576</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>524</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>579</v>
-      </c>
-      <c r="C20" s="4">
+        <v>578</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>529</v>
       </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>516</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>583</v>
-      </c>
-      <c r="C22" s="4">
+        <v>581</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="4">
         <v>1.2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>517</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>578</v>
-      </c>
-      <c r="C23" s="4">
+        <v>577</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>518</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>574</v>
-      </c>
-      <c r="C24" s="4">
+        <v>573</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>519</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>566</v>
-      </c>
-      <c r="C25" s="4">
+        <v>565</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>520</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>569</v>
-      </c>
-      <c r="C26" s="4">
+        <v>568</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>521</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>568</v>
-      </c>
-      <c r="C27" s="4">
+        <v>567</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>522</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>572</v>
-      </c>
-      <c r="C28" s="4">
+        <v>571</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>523</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>577</v>
-      </c>
-      <c r="C29" s="4">
+        <v>576</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>524</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>579</v>
-      </c>
-      <c r="C30" s="4">
+        <v>578</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C32" s="4">
-        <f>C2+C7+C8+C9+C11+C14+C15+C17+C18+C19+C20+C21+C23+C24+C27+C28+C29+C30</f>
+      <c r="E32" s="4">
+        <f>E2+E7+E8+E9+E11+E14+E15+E17+E18+E19+E20+E21+E23+E24+E27+E28+E29+E30</f>
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>559</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="C37" s="4">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C37" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>599</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>560</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>449</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="19" t="s">
+        <v>606</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="E38" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>561</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="C39" s="4">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>599</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>562</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="C40" s="4">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="19" t="s">
+        <v>604</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>563</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="C41" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="E41" s="4">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>564</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="C42" s="4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>627</v>
+      </c>
+      <c r="E42" s="4">
+        <v>8.3400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>565</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>566</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>610</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>567</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>612</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>611</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>568</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>614</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>613</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>569</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>456</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="E47" s="4">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>570</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="C48" s="4">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>596</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>595</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>571</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>616</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>615</v>
+      </c>
+      <c r="E49" s="4">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>572</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="E50" s="4">
+        <v>5.5599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
         <v>573</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>459</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>620</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>619</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
         <v>574</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>460</v>
-      </c>
-      <c r="C52" s="4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>598</v>
+      </c>
+      <c r="D52" t="s">
+        <v>597</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>575</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>461</v>
-      </c>
-      <c r="C53" s="4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>622</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>621</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1.55E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
         <v>576</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>624</v>
+      </c>
+      <c r="E54" s="4">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
         <v>577</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
         <v>578</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>635</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>634</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>593</v>
+      </c>
+      <c r="E57" s="4">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
         <v>581</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>628</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="C59" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>629</v>
+      </c>
+      <c r="E59" s="4">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>636</v>
+      </c>
+      <c r="E60" s="4">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>586</v>
-      </c>
-      <c r="C61" s="4">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>630</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
         <v>587</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>462</v>
-      </c>
-      <c r="C62" s="4">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="19" t="s">
         <v>588</v>
       </c>
-      <c r="B63" s="19" t="s">
-        <v>589</v>
-      </c>
-      <c r="C63" s="4">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
-        <v>590</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>591</v>
-      </c>
-      <c r="C64" s="4">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
-        <v>590</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>591</v>
-      </c>
-      <c r="C65" s="4">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
-        <v>592</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>593</v>
-      </c>
-      <c r="C66" s="4">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
-        <v>594</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>589</v>
-      </c>
-      <c r="C67" s="4">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
-        <v>595</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>596</v>
-      </c>
-      <c r="C68" s="4">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
-        <v>597</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>598</v>
-      </c>
-      <c r="C69" s="4">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="20">
-        <v>805</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
-        <v>600</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="19" t="s">
-        <v>601</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
-        <v>602</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="19" t="s">
-        <v>603</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>604</v>
+      <c r="C62" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>632</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0.39500000000000002</v>
       </c>
     </row>
   </sheetData>
